--- a/Template/Export/Sari_R2_9.xlsx
+++ b/Template/Export/Sari_R2_9.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Template\Export\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="120" windowWidth="15480" windowHeight="7305"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$A$1:$P$62</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -39,7 +42,7 @@
     <t>NÚMERO DE FALLECIDOS POR SEMANA EPIDEMIOLÓGICA</t>
   </si>
   <si>
-    <t>No. Fallecidos</t>
+    <t>Número de Fallecidos</t>
   </si>
 </sst>
 </file>
@@ -213,7 +216,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -250,33 +253,41 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -291,6 +302,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -298,7 +312,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="es-GT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -335,21 +349,31 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="3.1910947985692377E-2"/>
+          <c:y val="0.13921442201858764"/>
+          <c:w val="0.95125016950378327"/>
+          <c:h val="0.67364060881967902"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:idx val="1"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$B$7:$B$59</c:f>
+              <c:f>Hoja1!$C$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1 2 3 4 5 6 7 8 9 10 11 12 13 14 15 16 17 18 19 20 21 22 23 24 25 26 27 28 29 30 31 32 33 34 35 36 37 38 39 40 41 42 43 44 45 46 47 48 49 50 51 52 53</c:v>
+                  <c:v>Número de Fallecidos</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -374,20 +398,254 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="97428480"/>
-        <c:axId val="87134720"/>
+        <c:axId val="1289781200"/>
+        <c:axId val="1289773584"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Hoja1!$B$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Semana epidemiológica</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:invertIfNegative val="0"/>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Hoja1!$B$7:$B$59</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="53"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>19</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>21</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>22</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>23</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>24</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>25</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>26</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>27</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>28</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>29</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>30</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>31</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>33</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>34</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>35</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>36</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>37</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>38</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>39</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>41</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>42</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>43</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>44</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>45</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>46</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>47</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>48</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>49</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>51</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>52</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>53</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="97428480"/>
+        <c:axId val="1289781200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Semana epidemiológica</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.41212074093493761"/>
+              <c:y val="0.87588779690379892"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:txPr>
+            <a:bodyPr/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87134720"/>
+        <c:crossAx val="1289773584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -395,7 +653,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="87134720"/>
+        <c:axId val="1289773584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -406,11 +664,25 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97428480"/>
+        <c:crossAx val="1289781200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.4105226743327578"/>
+          <c:y val="0.93024677126277333"/>
+          <c:w val="0.17436210829559048"/>
+          <c:h val="5.982767042457162E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -459,7 +731,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -501,7 +773,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -536,7 +808,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -748,69 +1020,71 @@
   <dimension ref="B1:O60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B2" sqref="B2:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.5703125" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" style="21" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" style="21" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" style="1" customWidth="1"/>
     <col min="5" max="5" width="14.85546875" customWidth="1"/>
     <col min="6" max="15" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="22"/>
     </row>
     <row r="2" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
       <c r="O2" s="14"/>
     </row>
     <row r="3" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
+      <c r="C3"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -828,7 +1102,7 @@
       <c r="B6" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="18" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="12"/>
@@ -1799,10 +2073,10 @@
       <c r="O59" s="9"/>
     </row>
     <row r="60" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="17" t="s">
+      <c r="B60" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C60" s="18">
+      <c r="C60" s="17">
         <f>SUM(C7:C59)</f>
         <v>0</v>
       </c>
@@ -1826,35 +2100,11 @@
   <mergeCells count="4">
     <mergeCell ref="B4:H4"/>
     <mergeCell ref="H3:I3"/>
-    <mergeCell ref="B1:O1"/>
     <mergeCell ref="B2:N2"/>
+    <mergeCell ref="B1:N1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="62" orientation="landscape" horizontalDpi="4294967293" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Template/Export/Sari_R2_9.xlsx
+++ b/Template/Export/Sari_R2_9.xlsx
@@ -39,10 +39,10 @@
     <t>NACIONAL</t>
   </si>
   <si>
-    <t>NÚMERO DE FALLECIDOS POR SEMANA EPIDEMIOLÓGICA</t>
+    <t>Número de Fallecidos</t>
   </si>
   <si>
-    <t>Número de Fallecidos</t>
+    <t>NÚMERO DE CASOS DE IRAG FALLECIDOS POR SEMANA EPIDEMIOLÓGICA</t>
   </si>
 </sst>
 </file>
@@ -333,14 +333,9 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>NÚMERO</a:t>
+              <a:rPr lang="en-US" sz="1600"/>
+              <a:t>NÚMERO DE CASOS DE IRAG FALLECIDOS POR SEMANA EPIDEMIOLÓGICA</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> DE FALLECIDOS POR SEMANA EPIDEMIOLÓGICA</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -354,9 +349,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="3.1910947985692377E-2"/>
+          <c:x val="4.8749830496216673E-2"/>
           <c:y val="0.13921442201858764"/>
-          <c:w val="0.95125016950378327"/>
+          <c:w val="0.93441128699325904"/>
           <c:h val="0.67364060881967902"/>
         </c:manualLayout>
       </c:layout>
@@ -366,7 +361,7 @@
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:order val="0"/>
           <c:tx>
             <c:strRef>
               <c:f>Hoja1!$C$6</c:f>
@@ -379,6 +374,174 @@
             </c:strRef>
           </c:tx>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$B$7:$B$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="53"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Hoja1!$C$7:$C$59</c:f>
@@ -398,213 +561,12 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="1289781200"/>
-        <c:axId val="1289773584"/>
-        <c:extLst>
-          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="0"/>
-                <c:order val="0"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Hoja1!$B$6</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>Semana epidemiológica</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:invertIfNegative val="0"/>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Hoja1!$B$7:$B$59</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="53"/>
-                      <c:pt idx="0">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>2</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>3</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>4</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>5</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>6</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>7</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>8</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>9</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>10</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>11</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>12</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>13</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>14</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>15</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>16</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>17</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>18</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>19</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>20</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>21</c:v>
-                      </c:pt>
-                      <c:pt idx="21">
-                        <c:v>22</c:v>
-                      </c:pt>
-                      <c:pt idx="22">
-                        <c:v>23</c:v>
-                      </c:pt>
-                      <c:pt idx="23">
-                        <c:v>24</c:v>
-                      </c:pt>
-                      <c:pt idx="24">
-                        <c:v>25</c:v>
-                      </c:pt>
-                      <c:pt idx="25">
-                        <c:v>26</c:v>
-                      </c:pt>
-                      <c:pt idx="26">
-                        <c:v>27</c:v>
-                      </c:pt>
-                      <c:pt idx="27">
-                        <c:v>28</c:v>
-                      </c:pt>
-                      <c:pt idx="28">
-                        <c:v>29</c:v>
-                      </c:pt>
-                      <c:pt idx="29">
-                        <c:v>30</c:v>
-                      </c:pt>
-                      <c:pt idx="30">
-                        <c:v>31</c:v>
-                      </c:pt>
-                      <c:pt idx="31">
-                        <c:v>32</c:v>
-                      </c:pt>
-                      <c:pt idx="32">
-                        <c:v>33</c:v>
-                      </c:pt>
-                      <c:pt idx="33">
-                        <c:v>34</c:v>
-                      </c:pt>
-                      <c:pt idx="34">
-                        <c:v>35</c:v>
-                      </c:pt>
-                      <c:pt idx="35">
-                        <c:v>36</c:v>
-                      </c:pt>
-                      <c:pt idx="36">
-                        <c:v>37</c:v>
-                      </c:pt>
-                      <c:pt idx="37">
-                        <c:v>38</c:v>
-                      </c:pt>
-                      <c:pt idx="38">
-                        <c:v>39</c:v>
-                      </c:pt>
-                      <c:pt idx="39">
-                        <c:v>40</c:v>
-                      </c:pt>
-                      <c:pt idx="40">
-                        <c:v>41</c:v>
-                      </c:pt>
-                      <c:pt idx="41">
-                        <c:v>42</c:v>
-                      </c:pt>
-                      <c:pt idx="42">
-                        <c:v>43</c:v>
-                      </c:pt>
-                      <c:pt idx="43">
-                        <c:v>44</c:v>
-                      </c:pt>
-                      <c:pt idx="44">
-                        <c:v>45</c:v>
-                      </c:pt>
-                      <c:pt idx="45">
-                        <c:v>46</c:v>
-                      </c:pt>
-                      <c:pt idx="46">
-                        <c:v>47</c:v>
-                      </c:pt>
-                      <c:pt idx="47">
-                        <c:v>48</c:v>
-                      </c:pt>
-                      <c:pt idx="48">
-                        <c:v>49</c:v>
-                      </c:pt>
-                      <c:pt idx="49">
-                        <c:v>50</c:v>
-                      </c:pt>
-                      <c:pt idx="50">
-                        <c:v>51</c:v>
-                      </c:pt>
-                      <c:pt idx="51">
-                        <c:v>52</c:v>
-                      </c:pt>
-                      <c:pt idx="52">
-                        <c:v>53</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-              </c15:ser>
-            </c15:filteredBarSeries>
-          </c:ext>
-        </c:extLst>
+        <c:axId val="1602019952"/>
+        <c:axId val="1602013968"/>
+        <c:extLst/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1289781200"/>
+        <c:axId val="1602019952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -642,10 +604,11 @@
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1289773584"/>
+        <c:crossAx val="1602013968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -653,18 +616,37 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1289773584"/>
+        <c:axId val="1602013968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Número de fallecidos</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1289781200"/>
+        <c:crossAx val="1602019952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -702,13 +684,13 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>923925</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>19051</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1019,9 +1001,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:N2"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1051,7 +1031,7 @@
     </row>
     <row r="2" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="25" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="25"/>
       <c r="D2" s="25"/>
@@ -1103,7 +1083,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>

--- a/Template/Export/Sari_R2_9.xlsx
+++ b/Template/Export/Sari_R2_9.xlsx
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$A$1:$P$62</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -349,10 +349,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="4.8749830496216673E-2"/>
-          <c:y val="0.13921442201858764"/>
-          <c:w val="0.93441128699325904"/>
-          <c:h val="0.67364060881967902"/>
+          <c:x val="7.0181135509611248E-2"/>
+          <c:y val="0.11740746191772759"/>
+          <c:w val="0.91297998197986452"/>
+          <c:h val="0.65279833878259086"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -561,12 +561,12 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="1602019952"/>
-        <c:axId val="1602013968"/>
+        <c:axId val="-1923467616"/>
+        <c:axId val="-1923469248"/>
         <c:extLst/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1602019952"/>
+        <c:axId val="-1923467616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -589,7 +589,7 @@
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
               <c:x val="0.41212074093493761"/>
-              <c:y val="0.87588779690379892"/>
+              <c:y val="0.83930842796984539"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -608,7 +608,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1602013968"/>
+        <c:crossAx val="-1923469248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -616,7 +616,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1602013968"/>
+        <c:axId val="-1923469248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -637,6 +637,12 @@
                   <a:t>Número de fallecidos</a:t>
                 </a:r>
               </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
             </c:rich>
           </c:tx>
           <c:layout/>
@@ -646,9 +652,10 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1602019952"/>
+        <c:crossAx val="-1923467616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:minorUnit val="1"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -658,7 +665,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.4105226743327578"/>
-          <c:y val="0.93024677126277333"/>
+          <c:y val="0.89023041652962909"/>
           <c:w val="0.17436210829559048"/>
           <c:h val="5.982767042457162E-2"/>
         </c:manualLayout>
@@ -684,13 +691,13 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>923925</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>114301</xdr:rowOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>

--- a/Template/Export/Sari_R2_9.xlsx
+++ b/Template/Export/Sari_R2_9.xlsx
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$A$1:$P$62</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -310,7 +310,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -551,6 +551,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-50D9-4288-B334-2EE49A974B08}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1006,13 +1011,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:O60"/>
+  <dimension ref="A1:O60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" customWidth="1"/>
+    <col min="1" max="1" width="5.7109375" style="21" customWidth="1"/>
     <col min="2" max="2" width="14.5703125" style="21" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" style="21" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" style="1" customWidth="1"/>
